--- a/biology/Botanique/Rosa_setipoda/Rosa_setipoda.xlsx
+++ b/biology/Botanique/Rosa_setipoda/Rosa_setipoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa setipoda est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire de Chine centrale.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste pouvant atteindre 3 à 5 mètres de haut, aux fleurs simples rose brillant, sur pédoncule pourpre et réunis en bouquets, qui fleurissent en juin.
-Les fruits sont des cynorrhodons de couleur rouge foncé, à la forme particulière « en bouteille », longs de 3 à 6 cm, couverts de poils collants[1].
+Les fruits sont des cynorrhodons de couleur rouge foncé, à la forme particulière « en bouteille », longs de 3 à 6 cm, couverts de poils collants.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa macrophylla  var. crasseaculeata M.L.Vilm.</t>
         </is>
